--- a/CarAmelia 2/Assets/Scripts/Files/carte_2.xlsx
+++ b/CarAmelia 2/Assets/Scripts/Files/carte_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5eme semestre\Modélisation et Systèmes Complexes\SMA\Projet\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,10 +339,10 @@
   <dimension ref="A1:DN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="BO71" sqref="BO71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25476,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
         <v>1</v>
-      </c>
-      <c r="BO71">
-        <v>0</v>
       </c>
       <c r="BP71">
         <v>0</v>
@@ -30122,19 +30118,19 @@
         <v>0</v>
       </c>
       <c r="BT84">
+        <v>0</v>
+      </c>
+      <c r="BU84">
+        <v>0</v>
+      </c>
+      <c r="BV84">
+        <v>0</v>
+      </c>
+      <c r="BW84">
+        <v>0</v>
+      </c>
+      <c r="BX84">
         <v>1</v>
-      </c>
-      <c r="BU84">
-        <v>0</v>
-      </c>
-      <c r="BV84">
-        <v>0</v>
-      </c>
-      <c r="BW84">
-        <v>0</v>
-      </c>
-      <c r="BX84">
-        <v>0</v>
       </c>
       <c r="BY84">
         <v>0</v>
@@ -40589,343 +40585,343 @@
     </row>
     <row r="114" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>0</v>
+      </c>
+      <c r="AR114">
+        <v>0</v>
+      </c>
+      <c r="AS114">
+        <v>0</v>
+      </c>
+      <c r="AT114">
+        <v>0</v>
+      </c>
+      <c r="AU114">
+        <v>0</v>
+      </c>
+      <c r="AV114">
+        <v>0</v>
+      </c>
+      <c r="AW114">
+        <v>0</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>0</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+      <c r="BQ114">
+        <v>0</v>
+      </c>
+      <c r="BR114">
+        <v>0</v>
+      </c>
+      <c r="BS114">
+        <v>0</v>
+      </c>
+      <c r="BT114">
+        <v>0</v>
+      </c>
+      <c r="BU114">
+        <v>0</v>
+      </c>
+      <c r="BV114">
+        <v>0</v>
+      </c>
+      <c r="BW114">
+        <v>0</v>
+      </c>
+      <c r="BX114">
+        <v>0</v>
+      </c>
+      <c r="BY114">
+        <v>0</v>
+      </c>
+      <c r="BZ114">
+        <v>0</v>
+      </c>
+      <c r="CA114">
+        <v>0</v>
+      </c>
+      <c r="CB114">
+        <v>0</v>
+      </c>
+      <c r="CC114">
+        <v>0</v>
+      </c>
+      <c r="CD114">
+        <v>0</v>
+      </c>
+      <c r="CE114">
+        <v>0</v>
+      </c>
+      <c r="CF114">
+        <v>0</v>
+      </c>
+      <c r="CG114">
+        <v>0</v>
+      </c>
+      <c r="CH114">
+        <v>0</v>
+      </c>
+      <c r="CI114">
+        <v>0</v>
+      </c>
+      <c r="CJ114">
+        <v>0</v>
+      </c>
+      <c r="CK114">
+        <v>0</v>
+      </c>
+      <c r="CL114">
+        <v>0</v>
+      </c>
+      <c r="CM114">
+        <v>0</v>
+      </c>
+      <c r="CN114">
+        <v>0</v>
+      </c>
+      <c r="CO114">
+        <v>0</v>
+      </c>
+      <c r="CP114">
+        <v>0</v>
+      </c>
+      <c r="CQ114">
+        <v>0</v>
+      </c>
+      <c r="CR114">
+        <v>0</v>
+      </c>
+      <c r="CS114">
+        <v>0</v>
+      </c>
+      <c r="CT114">
+        <v>0</v>
+      </c>
+      <c r="CU114">
+        <v>0</v>
+      </c>
+      <c r="CV114">
+        <v>0</v>
+      </c>
+      <c r="CW114">
+        <v>0</v>
+      </c>
+      <c r="CX114">
+        <v>0</v>
+      </c>
+      <c r="CY114">
+        <v>0</v>
+      </c>
+      <c r="CZ114">
+        <v>0</v>
+      </c>
+      <c r="DA114">
+        <v>0</v>
+      </c>
+      <c r="DB114">
+        <v>0</v>
+      </c>
+      <c r="DC114">
+        <v>0</v>
+      </c>
+      <c r="DD114">
+        <v>0</v>
+      </c>
+      <c r="DE114">
+        <v>0</v>
+      </c>
+      <c r="DF114">
+        <v>0</v>
+      </c>
+      <c r="DG114">
+        <v>0</v>
+      </c>
+      <c r="DH114">
+        <v>0</v>
+      </c>
+      <c r="DI114">
         <v>1</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <v>0</v>
-      </c>
-      <c r="U114">
-        <v>0</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="X114">
-        <v>0</v>
-      </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AA114">
-        <v>0</v>
-      </c>
-      <c r="AB114">
-        <v>0</v>
-      </c>
-      <c r="AC114">
-        <v>0</v>
-      </c>
-      <c r="AD114">
-        <v>0</v>
-      </c>
-      <c r="AE114">
-        <v>0</v>
-      </c>
-      <c r="AF114">
-        <v>0</v>
-      </c>
-      <c r="AG114">
-        <v>0</v>
-      </c>
-      <c r="AH114">
-        <v>0</v>
-      </c>
-      <c r="AI114">
-        <v>0</v>
-      </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
-      <c r="AK114">
-        <v>0</v>
-      </c>
-      <c r="AL114">
-        <v>0</v>
-      </c>
-      <c r="AM114">
-        <v>0</v>
-      </c>
-      <c r="AN114">
-        <v>0</v>
-      </c>
-      <c r="AO114">
-        <v>0</v>
-      </c>
-      <c r="AP114">
-        <v>0</v>
-      </c>
-      <c r="AQ114">
-        <v>0</v>
-      </c>
-      <c r="AR114">
-        <v>0</v>
-      </c>
-      <c r="AS114">
-        <v>0</v>
-      </c>
-      <c r="AT114">
-        <v>0</v>
-      </c>
-      <c r="AU114">
-        <v>0</v>
-      </c>
-      <c r="AV114">
-        <v>0</v>
-      </c>
-      <c r="AW114">
-        <v>0</v>
-      </c>
-      <c r="AX114">
-        <v>0</v>
-      </c>
-      <c r="AY114">
-        <v>0</v>
-      </c>
-      <c r="AZ114">
-        <v>0</v>
-      </c>
-      <c r="BA114">
-        <v>0</v>
-      </c>
-      <c r="BB114">
-        <v>0</v>
-      </c>
-      <c r="BC114">
-        <v>0</v>
-      </c>
-      <c r="BD114">
-        <v>0</v>
-      </c>
-      <c r="BE114">
-        <v>0</v>
-      </c>
-      <c r="BF114">
-        <v>0</v>
-      </c>
-      <c r="BG114">
-        <v>0</v>
-      </c>
-      <c r="BH114">
-        <v>0</v>
-      </c>
-      <c r="BI114">
-        <v>0</v>
-      </c>
-      <c r="BJ114">
-        <v>0</v>
-      </c>
-      <c r="BK114">
-        <v>0</v>
-      </c>
-      <c r="BL114">
-        <v>0</v>
-      </c>
-      <c r="BM114">
-        <v>0</v>
-      </c>
-      <c r="BN114">
-        <v>0</v>
-      </c>
-      <c r="BO114">
-        <v>0</v>
-      </c>
-      <c r="BP114">
-        <v>0</v>
-      </c>
-      <c r="BQ114">
-        <v>0</v>
-      </c>
-      <c r="BR114">
-        <v>0</v>
-      </c>
-      <c r="BS114">
-        <v>0</v>
-      </c>
-      <c r="BT114">
-        <v>0</v>
-      </c>
-      <c r="BU114">
-        <v>0</v>
-      </c>
-      <c r="BV114">
-        <v>0</v>
-      </c>
-      <c r="BW114">
-        <v>0</v>
-      </c>
-      <c r="BX114">
-        <v>0</v>
-      </c>
-      <c r="BY114">
-        <v>0</v>
-      </c>
-      <c r="BZ114">
-        <v>0</v>
-      </c>
-      <c r="CA114">
-        <v>0</v>
-      </c>
-      <c r="CB114">
-        <v>0</v>
-      </c>
-      <c r="CC114">
-        <v>0</v>
-      </c>
-      <c r="CD114">
-        <v>0</v>
-      </c>
-      <c r="CE114">
-        <v>0</v>
-      </c>
-      <c r="CF114">
-        <v>0</v>
-      </c>
-      <c r="CG114">
-        <v>0</v>
-      </c>
-      <c r="CH114">
-        <v>0</v>
-      </c>
-      <c r="CI114">
-        <v>0</v>
-      </c>
-      <c r="CJ114">
-        <v>0</v>
-      </c>
-      <c r="CK114">
-        <v>0</v>
-      </c>
-      <c r="CL114">
-        <v>0</v>
-      </c>
-      <c r="CM114">
-        <v>0</v>
-      </c>
-      <c r="CN114">
-        <v>0</v>
-      </c>
-      <c r="CO114">
-        <v>0</v>
-      </c>
-      <c r="CP114">
-        <v>0</v>
-      </c>
-      <c r="CQ114">
-        <v>0</v>
-      </c>
-      <c r="CR114">
-        <v>0</v>
-      </c>
-      <c r="CS114">
-        <v>0</v>
-      </c>
-      <c r="CT114">
-        <v>0</v>
-      </c>
-      <c r="CU114">
-        <v>0</v>
-      </c>
-      <c r="CV114">
-        <v>0</v>
-      </c>
-      <c r="CW114">
-        <v>0</v>
-      </c>
-      <c r="CX114">
-        <v>0</v>
-      </c>
-      <c r="CY114">
-        <v>0</v>
-      </c>
-      <c r="CZ114">
-        <v>0</v>
-      </c>
-      <c r="DA114">
-        <v>0</v>
-      </c>
-      <c r="DB114">
-        <v>0</v>
-      </c>
-      <c r="DC114">
-        <v>0</v>
-      </c>
-      <c r="DD114">
-        <v>0</v>
-      </c>
-      <c r="DE114">
-        <v>0</v>
-      </c>
-      <c r="DF114">
-        <v>0</v>
-      </c>
-      <c r="DG114">
-        <v>0</v>
-      </c>
-      <c r="DH114">
-        <v>0</v>
-      </c>
-      <c r="DI114">
-        <v>0</v>
       </c>
       <c r="DJ114">
         <v>0</v>

--- a/CarAmelia 2/Assets/Scripts/Files/carte_2.xlsx
+++ b/CarAmelia 2/Assets/Scripts/Files/carte_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5eme semestre\Modélisation et Systèmes Complexes\SMA\Projet\projet-unity-caramelia\CarAmelia 2\Assets\Scripts\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -339,10 +339,10 @@
   <dimension ref="A1:DN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BR86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BO71" sqref="BO71"/>
+      <selection pane="bottomRight" activeCell="CT101" sqref="CT101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34468,7 +34468,7 @@
         <v>0</v>
       </c>
       <c r="CT96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU96">
         <v>1</v>
@@ -35219,7 +35219,7 @@
         <v>0</v>
       </c>
       <c r="DG98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH98">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>0</v>
       </c>
       <c r="CT100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU100">
         <v>0</v>
@@ -36248,7 +36248,7 @@
         <v>0</v>
       </c>
       <c r="CT101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU101">
         <v>1</v>
@@ -39850,7 +39850,7 @@
         <v>0</v>
       </c>
       <c r="DH111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI111">
         <v>0</v>
